--- a/Japanese-NHK.xlsx
+++ b/Japanese-NHK.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jack Nguyen\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Tien\Projects\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Vocabulary" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <si>
     <t>Nice to meet you (1st time meet)</t>
-  </si>
-  <si>
-    <t>I</t>
   </si>
   <si>
     <t>はじめまして。</t>
@@ -49,9 +46,6 @@
     <t>こちらこそ。</t>
   </si>
   <si>
-    <t>NounA + WA + NounB + DESU</t>
-  </si>
-  <si>
     <t>A is B</t>
   </si>
   <si>
@@ -63,13 +57,460 @@
   <si>
     <t>わたし。
 私。</t>
+  </si>
+  <si>
+    <t>どうぞ。</t>
+  </si>
+  <si>
+    <t>This is for you</t>
+  </si>
+  <si>
+    <t>これはなんですか。
+これは何ですか。</t>
+  </si>
+  <si>
+    <t>What is this?</t>
+  </si>
+  <si>
+    <t>タイ</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>おみやげ。
+お土産。</t>
+  </si>
+  <si>
+    <t>Souvenir</t>
+  </si>
+  <si>
+    <t>それはタイのお土産です。</t>
+  </si>
+  <si>
+    <t>It's is a Thai souvenir</t>
+  </si>
+  <si>
+    <t>ありがとうございます。</t>
+  </si>
+  <si>
+    <t>Thank you very much</t>
+  </si>
+  <si>
+    <t>どういしまして。</t>
+  </si>
+  <si>
+    <t>You are welcome</t>
+  </si>
+  <si>
+    <t>What is it?</t>
+  </si>
+  <si>
+    <t>NounA is supported for NounB</t>
+  </si>
+  <si>
+    <t>これは何ですか？</t>
+  </si>
+  <si>
+    <t>それはなんですか？</t>
+  </si>
+  <si>
+    <t>タイのお土産</t>
+  </si>
+  <si>
+    <t>A souvenir from Thai</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">NounA + </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + NounB + </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DESU</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>KORE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NAN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DESU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>KA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">SORE </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">+ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">WA </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">+ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">NAN </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> DESU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>KA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">NounA + </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + NounB</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">____ + </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">DOKO </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">+ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DESU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>KA</t>
+    </r>
+  </si>
+  <si>
+    <t>Where is ____?</t>
+  </si>
+  <si>
+    <t>トイレはどこですか？</t>
+  </si>
+  <si>
+    <t>Where is a restroom?</t>
+  </si>
+  <si>
+    <t>KOSOADO -&gt; KOKO(here) + SOKO(there) + ASOKO(over there) + DOKO(where)</t>
+  </si>
+  <si>
+    <t>A classroom</t>
+  </si>
+  <si>
+    <t>きょうしつ。
+教室。</t>
+  </si>
+  <si>
+    <t>ひろい。
+広い。</t>
+  </si>
+  <si>
+    <t>Spacious</t>
+  </si>
+  <si>
+    <t>としょかん。
+図書館。</t>
+  </si>
+  <si>
+    <t>A library</t>
+  </si>
+  <si>
+    <t>A toilet / restroom</t>
+  </si>
+  <si>
+    <t>トイレ。</t>
+  </si>
+  <si>
+    <t>I / ME</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,6 +538,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -118,11 +566,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -131,6 +578,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -411,15 +863,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="33.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="70.85546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="70.85546875" style="4" customWidth="1"/>
     <col min="2" max="2" width="43.42578125" style="2" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" style="2" customWidth="1"/>
     <col min="4" max="4" width="20" style="2" customWidth="1"/>
@@ -427,46 +877,131 @@
     <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="33.75" x14ac:dyDescent="0.5">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="67.5" x14ac:dyDescent="0.5">
+      <c r="A2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="67.5" x14ac:dyDescent="0.5">
+      <c r="A3" s="5" t="s">
         <v>2</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="67.5" x14ac:dyDescent="0.5">
-      <c r="A2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="67.5" x14ac:dyDescent="0.5">
-      <c r="A3" s="6" t="s">
-        <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:5" ht="33.75" x14ac:dyDescent="0.5">
-      <c r="A4" s="7" t="s">
-        <v>6</v>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A4" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="E6" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A5" s="6"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" ht="67.5" x14ac:dyDescent="0.5">
+      <c r="A7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="67.5" x14ac:dyDescent="0.5">
+      <c r="A9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="67.5" x14ac:dyDescent="0.5">
+      <c r="A14" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="67.5" x14ac:dyDescent="0.5">
+      <c r="A15" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="67.5" x14ac:dyDescent="0.5">
+      <c r="A16" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A17" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -476,33 +1011,89 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.7109375" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.140625" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>10</v>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Japanese-NHK.xlsx
+++ b/Japanese-NHK.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Vocabulary" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="83">
   <si>
     <t>Nice to meet you (1st time meet)</t>
   </si>
@@ -504,6 +504,316 @@
   </si>
   <si>
     <t>I / ME</t>
+  </si>
+  <si>
+    <t>I'm home / I'm Back</t>
+  </si>
+  <si>
+    <t>ただいま。</t>
+  </si>
+  <si>
+    <t>おかえりなさい。
+お帰りなさい。</t>
+  </si>
+  <si>
+    <t>Welcome back</t>
+  </si>
+  <si>
+    <t>こんにちは。</t>
+  </si>
+  <si>
+    <t>Hello / Good afternoon</t>
+  </si>
+  <si>
+    <t>あなた</t>
+  </si>
+  <si>
+    <t>You</t>
+  </si>
+  <si>
+    <t>International Student</t>
+  </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>がくせい。
+学生。</t>
+  </si>
+  <si>
+    <t>りゅうがくせい。
+留学生。</t>
+  </si>
+  <si>
+    <t>はい。</t>
+  </si>
+  <si>
+    <t>いいえ。</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Dorm Mother</t>
+  </si>
+  <si>
+    <t>りょうぼ。
+寮母。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">NounA + </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">WA </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">+ NounB + </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">DESU </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">+ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>KA</t>
+    </r>
+  </si>
+  <si>
+    <t>A is B ?</t>
+  </si>
+  <si>
+    <t>あなたは日本人のですか？</t>
+  </si>
+  <si>
+    <t>Is Anna a Japanese?</t>
+  </si>
+  <si>
+    <t>Yes, A is B</t>
+  </si>
+  <si>
+    <t>No, A is not B</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HAI,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> NounA + </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">WA </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">+ NounB + </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">DESU </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">+ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>KA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IIE,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> NounA + </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + NounB + </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">DEWA </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">+ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ARIMASEN</t>
+    </r>
+  </si>
+  <si>
+    <t>はい、あなたはにほんじんです。</t>
+  </si>
+  <si>
+    <t>いいえ、あなたは日本人ではありません。</t>
+  </si>
+  <si>
+    <t>Yes, Anna is Japanese</t>
+  </si>
+  <si>
+    <t>No, Anna is not Japanese</t>
+  </si>
+  <si>
+    <t>Good morning</t>
+  </si>
+  <si>
+    <t>Good afternoon</t>
+  </si>
+  <si>
+    <t>Good night</t>
+  </si>
+  <si>
+    <t>おはようございます。</t>
+  </si>
+  <si>
+    <t>こんばんは。</t>
   </si>
 </sst>
 </file>
@@ -546,12 +856,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -566,7 +882,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -583,6 +899,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -863,9 +1181,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="33.75" x14ac:dyDescent="0.5"/>
   <cols>
@@ -879,128 +1197,224 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="67.5" x14ac:dyDescent="0.5">
-      <c r="A2" s="5" t="s">
+    <row r="4" spans="1:5" ht="67.5" x14ac:dyDescent="0.5">
+      <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="67.5" x14ac:dyDescent="0.5">
-      <c r="A3" s="5" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" ht="67.5" x14ac:dyDescent="0.5">
+      <c r="A6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A4" s="6" t="s">
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A5" s="6"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A6" s="6" t="s">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A8" s="6"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" ht="67.5" x14ac:dyDescent="0.5">
-      <c r="A7" s="7" t="s">
+    </row>
+    <row r="10" spans="1:5" ht="67.5" x14ac:dyDescent="0.5">
+      <c r="A10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="67.5" x14ac:dyDescent="0.5">
-      <c r="A9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="67.5" x14ac:dyDescent="0.5">
+      <c r="A12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A12" s="4" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A15" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="67.5" x14ac:dyDescent="0.5">
-      <c r="A14" s="7" t="s">
+    <row r="17" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
+      <c r="A17" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="67.5" x14ac:dyDescent="0.5">
-      <c r="A15" s="7" t="s">
+    <row r="18" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
+      <c r="A18" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="67.5" x14ac:dyDescent="0.5">
-      <c r="A16" s="7" t="s">
+    <row r="19" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
+      <c r="A19" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A17" s="9" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A20" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A22" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
+      <c r="A23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A24" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
+      <c r="A25" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
+      <c r="A26" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
+      <c r="A27" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A28" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A29" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A30" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1011,16 +1425,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" customWidth="1"/>
+    <col min="1" max="1" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.140625" customWidth="1"/>
-    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="3" max="3" width="45.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1092,6 +1508,48 @@
         <v>38</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Japanese-NHK.xlsx
+++ b/Japanese-NHK.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="111">
   <si>
     <t>Nice to meet you (1st time meet)</t>
   </si>
@@ -814,6 +814,178 @@
   </si>
   <si>
     <t>こんばんは。</t>
+  </si>
+  <si>
+    <t>To read</t>
+  </si>
+  <si>
+    <t>Not to read</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MASU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">-form verbs </t>
+    </r>
+  </si>
+  <si>
+    <t>Action (Polite)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MASEN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">-form verbs </t>
+    </r>
+  </si>
+  <si>
+    <t>Not Action (Polite)</t>
+  </si>
+  <si>
+    <t>よみます。</t>
+  </si>
+  <si>
+    <t>よみません。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[Subject] + </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WA +</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [Object] + </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>O</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + Verb</t>
+    </r>
+  </si>
+  <si>
+    <t>Subject + Verb + Object</t>
+  </si>
+  <si>
+    <t>I read manga</t>
+  </si>
+  <si>
+    <t>へや。
+部屋。</t>
+  </si>
+  <si>
+    <t>Room</t>
+  </si>
+  <si>
+    <t>My room is this way</t>
+  </si>
+  <si>
+    <t>私の部屋はこちらです。</t>
+  </si>
+  <si>
+    <t>Amazing</t>
+  </si>
+  <si>
+    <t>すごい。</t>
+  </si>
+  <si>
+    <t>マンガ</t>
+  </si>
+  <si>
+    <t>Manga</t>
+  </si>
+  <si>
+    <t>These are all manga</t>
+  </si>
+  <si>
+    <t>これはぜんぶマンガです。
+これは全部マンガです。</t>
+  </si>
+  <si>
+    <t>たからもの。
+宝物。</t>
+  </si>
+  <si>
+    <t>Treasure</t>
+  </si>
+  <si>
+    <t>Everyday</t>
+  </si>
+  <si>
+    <t>まいにち。
+毎日。</t>
+  </si>
+  <si>
+    <t>I read manga everyday.</t>
+  </si>
+  <si>
+    <t>私はまんがをよみます。</t>
+  </si>
+  <si>
+    <t>私は毎日マンガを読みます。</t>
   </si>
 </sst>
 </file>
@@ -856,7 +1028,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -866,6 +1038,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -882,7 +1060,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -901,6 +1079,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1181,9 +1360,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="33.75" x14ac:dyDescent="0.5"/>
   <cols>
@@ -1417,6 +1598,70 @@
         <v>80</v>
       </c>
     </row>
+    <row r="32" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
+      <c r="A32" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A33" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A34" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A35" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
+      <c r="A36" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
+      <c r="A37" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
+      <c r="A38" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A39" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1425,10 +1670,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1550,6 +1795,69 @@
         <v>77</v>
       </c>
     </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Japanese-NHK.xlsx
+++ b/Japanese-NHK.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="159">
   <si>
     <t>Nice to meet you (1st time meet)</t>
   </si>
@@ -986,6 +986,183 @@
   </si>
   <si>
     <t>私は毎日マンガを読みます。</t>
+  </si>
+  <si>
+    <t>By the way</t>
+  </si>
+  <si>
+    <t>ところで。</t>
+  </si>
+  <si>
+    <t>でんわ。
+電話。</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>でんわばん。
+電話番号。</t>
+  </si>
+  <si>
+    <t>Phone number</t>
+  </si>
+  <si>
+    <t>What number is your phone number?</t>
+  </si>
+  <si>
+    <t>What number?</t>
+  </si>
+  <si>
+    <t>でんわばんごはなんばんですか？
+電話番号は何番ですか？</t>
+  </si>
+  <si>
+    <t>なんばんですか？
+何番ですか？</t>
+  </si>
+  <si>
+    <t>Let me see</t>
+  </si>
+  <si>
+    <t>ええと。</t>
+  </si>
+  <si>
+    <t>Thank you.</t>
+  </si>
+  <si>
+    <t>ありがとう。</t>
+  </si>
+  <si>
+    <t>じゃ、</t>
+  </si>
+  <si>
+    <t>Then,</t>
+  </si>
+  <si>
+    <t>I'll phone you next time</t>
+  </si>
+  <si>
+    <t>こんど、でんわをしますね。
+今度、電話をしますね。</t>
+  </si>
+  <si>
+    <t>今度。</t>
+  </si>
+  <si>
+    <t>Next time</t>
+  </si>
+  <si>
+    <t>REI, ZERO</t>
+  </si>
+  <si>
+    <t>ICHI</t>
+  </si>
+  <si>
+    <t>NI</t>
+  </si>
+  <si>
+    <t>SAN</t>
+  </si>
+  <si>
+    <t>YON, SHI</t>
+  </si>
+  <si>
+    <t>GO</t>
+  </si>
+  <si>
+    <t>ROKU</t>
+  </si>
+  <si>
+    <t>NANA, SHICHI</t>
+  </si>
+  <si>
+    <t>HACHI</t>
+  </si>
+  <si>
+    <t>KYU, KU</t>
+  </si>
+  <si>
+    <t>JU</t>
+  </si>
+  <si>
+    <t>いち
+一</t>
+  </si>
+  <si>
+    <t>に
+ニ</t>
+  </si>
+  <si>
+    <t>さん
+三</t>
+  </si>
+  <si>
+    <t>よん
+四</t>
+  </si>
+  <si>
+    <t>ご
+五</t>
+  </si>
+  <si>
+    <t>ろく
+六</t>
+  </si>
+  <si>
+    <t>なな
+七</t>
+  </si>
+  <si>
+    <t>はち
+八</t>
+  </si>
+  <si>
+    <t>きゅう
+九</t>
+  </si>
+  <si>
+    <t>じゅう
+十</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">____ + </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>O + SHIMASU</t>
+    </r>
+  </si>
+  <si>
+    <t>べんきょうをします。
+勉強をします。</t>
+  </si>
+  <si>
+    <t>りょうりをします。
+料理をします。</t>
+  </si>
+  <si>
+    <t>To do _(noun)_</t>
+  </si>
+  <si>
+    <t>I study
+To do + studying</t>
+  </si>
+  <si>
+    <t>I cook
+To do + cooking</t>
+  </si>
+  <si>
+    <t>れい、ゼロ
+零 / 〇</t>
   </si>
 </sst>
 </file>
@@ -1060,7 +1237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1080,6 +1257,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1360,15 +1540,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="33.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="70.85546875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="88.7109375" style="4" customWidth="1"/>
     <col min="2" max="2" width="43.42578125" style="2" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" style="2" customWidth="1"/>
     <col min="4" max="4" width="20" style="2" customWidth="1"/>
@@ -1662,6 +1840,86 @@
         <v>108</v>
       </c>
     </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A41" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
+      <c r="A42" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
+      <c r="A43" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
+      <c r="A44" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
+      <c r="A45" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A46" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A47" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A48" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A49" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
+      <c r="A50" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1670,11 +1928,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1840,23 +2096,148 @@
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B20">
+        <v>6</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B21">
+        <v>7</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B22">
+        <v>8</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B23">
+        <v>9</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B24">
+        <v>10</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>152</v>
+      </c>
+      <c r="B26" t="s">
+        <v>155</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C27" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>157</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Japanese-NHK.xlsx
+++ b/Japanese-NHK.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="185">
   <si>
     <t>Nice to meet you (1st time meet)</t>
   </si>
@@ -1163,6 +1163,103 @@
   <si>
     <t>れい、ゼロ
 零 / 〇</t>
+  </si>
+  <si>
+    <t>Cake</t>
+  </si>
+  <si>
+    <t>There are lots of cakes</t>
+  </si>
+  <si>
+    <t>ケーキ。</t>
+  </si>
+  <si>
+    <t>ケーキがいっぱいありますね。</t>
+  </si>
+  <si>
+    <t>Excuse me</t>
+  </si>
+  <si>
+    <t>すみません。</t>
+  </si>
+  <si>
+    <t>Are there cream puffs?</t>
+  </si>
+  <si>
+    <t>シュークリームはありますか？</t>
+  </si>
+  <si>
+    <t>This way</t>
+  </si>
+  <si>
+    <t>こちらです。</t>
+  </si>
+  <si>
+    <t>Two cream puffs</t>
+  </si>
+  <si>
+    <t>Please</t>
+  </si>
+  <si>
+    <t>ください。</t>
+  </si>
+  <si>
+    <t>シュークリームをふたつ。
+シュークリームを二つ。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">___ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GA + ARIMASU</t>
+    </r>
+  </si>
+  <si>
+    <t>There is a cake</t>
+  </si>
+  <si>
+    <t>There is/are __N__
+- GA: Introduce sth/so for first time
+- ARIMASU: Indicate sth</t>
+  </si>
+  <si>
+    <t>シュークリームがあります。</t>
+  </si>
+  <si>
+    <t>TSU</t>
+  </si>
+  <si>
+    <t>A counter for things</t>
+  </si>
+  <si>
+    <t>HITOTSU</t>
+  </si>
+  <si>
+    <t>FUTATSU</t>
+  </si>
+  <si>
+    <t>MITTSU</t>
+  </si>
+  <si>
+    <t>ひとつ
+一つ</t>
+  </si>
+  <si>
+    <t>ふたつ
+二つ</t>
+  </si>
+  <si>
+    <t>みっつ
+三つ</t>
   </si>
 </sst>
 </file>
@@ -1540,9 +1637,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="33.75" x14ac:dyDescent="0.5"/>
   <cols>
@@ -1920,6 +2019,62 @@
         <v>127</v>
       </c>
     </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A52" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A53" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A54" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A55" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A56" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
+      <c r="A57" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A58" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1928,14 +2083,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="71.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33" customWidth="1"/>
     <col min="3" max="3" width="45.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -2239,6 +2396,65 @@
         <v>157</v>
       </c>
     </row>
+    <row r="29" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>173</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="D29" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B31" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>179</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>180</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>181</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>184</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Japanese-NHK.xlsx
+++ b/Japanese-NHK.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="210">
   <si>
     <t>Nice to meet you (1st time meet)</t>
   </si>
@@ -625,9 +625,6 @@
     <t>A is B ?</t>
   </si>
   <si>
-    <t>あなたは日本人のですか？</t>
-  </si>
-  <si>
     <t>Is Anna a Japanese?</t>
   </si>
   <si>
@@ -635,82 +632,6 @@
   </si>
   <si>
     <t>No, A is not B</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>HAI,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> NounA + </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">WA </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">+ NounB + </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">DESU </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">+ </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>KA</t>
-    </r>
   </si>
   <si>
     <r>
@@ -1001,10 +922,6 @@
     <t>Phone</t>
   </si>
   <si>
-    <t>でんわばん。
-電話番号。</t>
-  </si>
-  <si>
     <t>Phone number</t>
   </si>
   <si>
@@ -1045,9 +962,6 @@
   <si>
     <t>こんど、でんわをしますね。
 今度、電話をしますね。</t>
-  </si>
-  <si>
-    <t>今度。</t>
   </si>
   <si>
     <t>Next time</t>
@@ -1260,13 +1174,211 @@
   <si>
     <t>みっつ
 三つ</t>
+  </si>
+  <si>
+    <t>でんわばんご。
+電話番号。</t>
+  </si>
+  <si>
+    <t>こんど。
+今度。</t>
+  </si>
+  <si>
+    <t>あなたは日本人ですか？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HAI,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> NounA + </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">WA </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">+ NounB + </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">DESU </t>
+    </r>
+  </si>
+  <si>
+    <t>Everyone</t>
+  </si>
+  <si>
+    <t>みなさん。</t>
+  </si>
+  <si>
+    <t>せんせい。
+先生。</t>
+  </si>
+  <si>
+    <t>Teacher</t>
+  </si>
+  <si>
+    <t>Memorise</t>
+  </si>
+  <si>
+    <t>Please memories this</t>
+  </si>
+  <si>
+    <t>おぼえて。
+覚えて。</t>
+  </si>
+  <si>
+    <t>これをおぼえてください。
+これを覚えてください。</t>
+  </si>
+  <si>
+    <t>It often comes up in exams</t>
+  </si>
+  <si>
+    <t>しけんによくでます。
+試験によく出ます。</t>
+  </si>
+  <si>
+    <t>えう。</t>
+  </si>
+  <si>
+    <t>What?</t>
+  </si>
+  <si>
+    <t>One more, please</t>
+  </si>
+  <si>
+    <t>おねがいします。
+お願いします。</t>
+  </si>
+  <si>
+    <t>One more</t>
+  </si>
+  <si>
+    <t>もういちど。
+もう一度。</t>
+  </si>
+  <si>
+    <t>もういちどおねがいします。
+もう一度お願いします。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">TE - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>form verb</t>
+    </r>
+  </si>
+  <si>
+    <t>Basic term
+- In middle of sentences, use their conjugated forms
+- The conjugated forms verbs with TE or DE
+- Change MASU to TE</t>
+  </si>
+  <si>
+    <t>to memorize</t>
+  </si>
+  <si>
+    <t>おぼえますー＞おぼえて。
+覚えますー＞覚えて。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TE - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">form verb + </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>KUDASAI</t>
+    </r>
+  </si>
+  <si>
+    <t>Please do ___
+- To ask so to do sth</t>
+  </si>
+  <si>
+    <t>Please memorize</t>
+  </si>
+  <si>
+    <t>OBOEMASU + KUDASAI =&gt; OBOETE KUDASAI
+おぼえますください=&gt; おぼえてください。
+覚えますくださいー＞覚えてください。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1301,8 +1413,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1321,6 +1440,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1334,7 +1465,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1355,6 +1486,20 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1637,10 +1782,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:E68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="33.75" x14ac:dyDescent="0.5"/>
@@ -1853,10 +1998,10 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A28" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.5">
@@ -1864,215 +2009,287 @@
         <v>52</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A30" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
       <c r="A32" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A33" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A34" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A35" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
       <c r="A36" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
       <c r="A37" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
       <c r="A38" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A39" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A41" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
       <c r="A42" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
       <c r="A43" s="7" t="s">
-        <v>115</v>
+        <v>181</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
       <c r="A44" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
       <c r="A45" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A46" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A47" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A48" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
+      <c r="A49" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>126</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A49" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
       <c r="A50" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A52" s="4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A53" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A54" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A55" s="4" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A56" s="4" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
       <c r="A57" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A58" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A60" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
+      <c r="A61" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
+      <c r="A62" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
+      <c r="A63" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
+      <c r="A64" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A65" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
+      <c r="A66" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
+      <c r="A67" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
+      <c r="A68" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -2083,16 +2300,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="71.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33" customWidth="1"/>
+    <col min="2" max="2" width="39.5703125" customWidth="1"/>
     <col min="3" max="3" width="45.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -2167,294 +2384,354 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B10" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C10" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="11" t="s">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="C11" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="D11" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="C12" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" s="11" t="s">
+      <c r="D12" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+    </row>
+    <row r="13" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B15" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="B11" s="12" t="s">
+      <c r="C15" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B12" t="s">
-        <v>92</v>
-      </c>
-      <c r="C12" t="s">
-        <v>109</v>
-      </c>
-      <c r="D12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-    </row>
-    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="D15" s="12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+    </row>
+    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="B17" s="20">
+        <v>0</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="B18" s="20">
+        <v>1</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="B19" s="20">
+        <v>2</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="B20" s="20">
+        <v>3</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="B21" s="20">
+        <v>4</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="B15">
+      <c r="B22" s="20">
+        <v>5</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="B23" s="20">
+        <v>6</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="B24" s="20">
+        <v>7</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="B25" s="20">
+        <v>8</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="B26" s="20">
+        <v>9</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="B27" s="20">
+        <v>10</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>148</v>
+      </c>
+      <c r="B29" t="s">
+        <v>151</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C30" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>169</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="D32" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="C34" s="18"/>
+    </row>
+    <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="B35" s="18">
         <v>1</v>
       </c>
-      <c r="C15" s="13" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B16">
+      <c r="C35" s="19" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="B36" s="18">
         <v>2</v>
       </c>
-      <c r="C16" s="13" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B17">
+      <c r="C36" s="19" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="B37" s="18">
         <v>3</v>
       </c>
-      <c r="C17" s="13" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="B18">
-        <v>4</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="B19">
-        <v>5</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="B20">
-        <v>6</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B21">
-        <v>7</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="B22">
-        <v>8</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="B23">
-        <v>9</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="B24">
-        <v>10</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>152</v>
-      </c>
-      <c r="B26" t="s">
-        <v>155</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="C27" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>173</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="D29" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B31" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>179</v>
-      </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="C37" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="B33">
-        <v>2</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>181</v>
-      </c>
-      <c r="B34">
-        <v>3</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>184</v>
-      </c>
-    </row>
+    </row>
+    <row r="39" spans="1:4" s="14" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A39" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A40" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Japanese-NHK.xlsx
+++ b/Japanese-NHK.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Tien\Projects\Japanese\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jack Nguyen\Desktop\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Vocabulary" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="240">
   <si>
     <t>Nice to meet you (1st time meet)</t>
   </si>
@@ -103,18 +103,9 @@
     <t>You are welcome</t>
   </si>
   <si>
-    <t>What is it?</t>
-  </si>
-  <si>
     <t>NounA is supported for NounB</t>
   </si>
   <si>
-    <t>これは何ですか？</t>
-  </si>
-  <si>
-    <t>それはなんですか？</t>
-  </si>
-  <si>
     <t>タイのお土産</t>
   </si>
   <si>
@@ -166,200 +157,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>KORE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> + </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>WA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> + </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>NAN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> + </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DESU</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> + </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>KA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">SORE </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">+ </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">WA </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">+ </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">NAN </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>+</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> DESU</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> + </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>KA</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">NounA + </t>
     </r>
     <r>
@@ -383,88 +180,6 @@
       </rPr>
       <t xml:space="preserve"> + NounB</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">____ + </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>WA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> + </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">DOKO </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">+ </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DESU</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> + </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>KA</t>
-    </r>
-  </si>
-  <si>
-    <t>Where is ____?</t>
   </si>
   <si>
     <t>トイレはどこですか？</t>
@@ -1000,62 +715,6 @@
     <t>JU</t>
   </si>
   <si>
-    <t>いち
-一</t>
-  </si>
-  <si>
-    <t>に
-ニ</t>
-  </si>
-  <si>
-    <t>さん
-三</t>
-  </si>
-  <si>
-    <t>よん
-四</t>
-  </si>
-  <si>
-    <t>ご
-五</t>
-  </si>
-  <si>
-    <t>ろく
-六</t>
-  </si>
-  <si>
-    <t>なな
-七</t>
-  </si>
-  <si>
-    <t>はち
-八</t>
-  </si>
-  <si>
-    <t>きゅう
-九</t>
-  </si>
-  <si>
-    <t>じゅう
-十</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">____ + </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>O + SHIMASU</t>
-    </r>
-  </si>
-  <si>
     <t>べんきょうをします。
 勉強をします。</t>
   </si>
@@ -1075,10 +734,6 @@
 To do + cooking</t>
   </si>
   <si>
-    <t>れい、ゼロ
-零 / 〇</t>
-  </si>
-  <si>
     <t>Cake</t>
   </si>
   <si>
@@ -1120,22 +775,6 @@
   <si>
     <t>シュークリームをふたつ。
 シュークリームを二つ。</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">___ </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>GA + ARIMASU</t>
-    </r>
   </si>
   <si>
     <t>There is a cake</t>
@@ -1162,18 +801,6 @@
   </si>
   <si>
     <t>MITTSU</t>
-  </si>
-  <si>
-    <t>ひとつ
-一つ</t>
-  </si>
-  <si>
-    <t>ふたつ
-二つ</t>
-  </si>
-  <si>
-    <t>みっつ
-三つ</t>
   </si>
   <si>
     <t>でんわばんご。
@@ -1362,23 +989,540 @@
     </r>
   </si>
   <si>
-    <t>Please do ___
-- To ask so to do sth</t>
-  </si>
-  <si>
     <t>Please memorize</t>
   </si>
   <si>
     <t>OBOEMASU + KUDASAI =&gt; OBOETE KUDASAI
 おぼえますください=&gt; おぼえてください。
 覚えますくださいー＞覚えてください。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>KORE/SORE/ARE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NAN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DESU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>KA</t>
+    </r>
+  </si>
+  <si>
+    <t>What is this/that/that?</t>
+  </si>
+  <si>
+    <t>これ/それ/あれは何ですか？</t>
+  </si>
+  <si>
+    <t>れい、ゼロ、零 / 〇</t>
+  </si>
+  <si>
+    <t>いち、一</t>
+  </si>
+  <si>
+    <t>に、ニ</t>
+  </si>
+  <si>
+    <t>さん、三</t>
+  </si>
+  <si>
+    <t>ご、五</t>
+  </si>
+  <si>
+    <t>ろく、六</t>
+  </si>
+  <si>
+    <t>はち、八</t>
+  </si>
+  <si>
+    <t>じゅう、十</t>
+  </si>
+  <si>
+    <t>よん、し、四</t>
+  </si>
+  <si>
+    <t>なな、しち、七</t>
+  </si>
+  <si>
+    <t>きゅう、く、九</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">___N___ + </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>O + SHIMASU</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">__N__ + </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">DOKO </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">+ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DESU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>KA</t>
+    </r>
+  </si>
+  <si>
+    <t>Where is __N__?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">__N__ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GA + ARIMASU</t>
+    </r>
+  </si>
+  <si>
+    <t>ひとつ、一つ</t>
+  </si>
+  <si>
+    <t>ふたつ、二つ</t>
+  </si>
+  <si>
+    <t>みっつ、三つ</t>
+  </si>
+  <si>
+    <t>Please do _v__
+- To ask so to do sth</t>
+  </si>
+  <si>
+    <t>Tomorrow</t>
+  </si>
+  <si>
+    <t>あした。
+明日。</t>
+  </si>
+  <si>
+    <t>A health examination</t>
+  </si>
+  <si>
+    <t>けんこうしんだん。
+健康診断。</t>
+  </si>
+  <si>
+    <t>From what time?</t>
+  </si>
+  <si>
+    <t>なんじからですか？
+何時からですか？</t>
+  </si>
+  <si>
+    <t>In the morning, from 9AM to 11AM</t>
+  </si>
+  <si>
+    <t>ごぜんき9じから１１じまでです。
+午前9時から11時までです。</t>
+  </si>
+  <si>
+    <t>ごぜん。
+午前。</t>
+  </si>
+  <si>
+    <t>ごご。
+午後。</t>
+  </si>
+  <si>
+    <t>In the morning / AM</t>
+  </si>
+  <si>
+    <t>In the afternoon / PM</t>
+  </si>
+  <si>
+    <t>Please gather at this place at 8:30</t>
+  </si>
+  <si>
+    <t>ここに8じはんにあつまってください。
+ここに8時半に集まってください。</t>
+  </si>
+  <si>
+    <t>NANJI</t>
+  </si>
+  <si>
+    <t>What time ?</t>
+  </si>
+  <si>
+    <t>What time is it?</t>
+  </si>
+  <si>
+    <t>NANJI DESU KA?
+なんじすか？
+何時ですか？</t>
+  </si>
+  <si>
+    <t>TE - form verb</t>
+  </si>
+  <si>
+    <t>Variation
+- Change not only MASU but also one syllable before</t>
+  </si>
+  <si>
+    <t>Syllable before MASU =&gt; TE-form</t>
+  </si>
+  <si>
+    <t>i/chi/ri =&gt; tte</t>
+  </si>
+  <si>
+    <t>mi/ni/bi =&gt; nde</t>
+  </si>
+  <si>
+    <t>ki =&gt; ite</t>
+  </si>
+  <si>
+    <t>gi =&gt; ide</t>
+  </si>
+  <si>
+    <t>Examples</t>
+  </si>
+  <si>
+    <r>
+      <t>YO</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MIMASU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (to read) =&gt; YO</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NDE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ISO</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GIMASU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (to hurry) =&gt; ISO</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IDE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>KI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>KIMASU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (to listen to) =&gt; KI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ITE</t>
+    </r>
+  </si>
+  <si>
+    <t>Exception</t>
+  </si>
+  <si>
+    <t>IKIMASU (to go) =&gt; ITTE</t>
+  </si>
+  <si>
+    <r>
+      <t>ATSUMA</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RIMASU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (to gather) =&gt; ATSUMA</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TTE</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1420,8 +1564,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1452,8 +1621,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1461,11 +1636,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1481,7 +1685,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1493,15 +1696,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1782,15 +2017,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E68"/>
+  <dimension ref="A1:E77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69"/>
+    <sheetView topLeftCell="A76" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="33.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="88.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="91.5703125" style="4" customWidth="1"/>
     <col min="2" max="2" width="43.42578125" style="2" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" style="2" customWidth="1"/>
     <col min="4" max="4" width="20" style="2" customWidth="1"/>
@@ -1799,497 +2034,595 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A1" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>62</v>
+      <c r="A1" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A2" s="4" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="67.5" x14ac:dyDescent="0.5">
-      <c r="A4" s="5" t="s">
+    <row r="5" spans="1:5" ht="67.5" x14ac:dyDescent="0.5">
+      <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A6" s="4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A5" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" ht="67.5" x14ac:dyDescent="0.5">
-      <c r="A6" s="5" t="s">
+      <c r="B6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" ht="67.5" x14ac:dyDescent="0.5">
+      <c r="A7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A7" s="6" t="s">
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A8" s="6"/>
-      <c r="E8" s="3"/>
-    </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="16">
+        <v>2</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="67.5" x14ac:dyDescent="0.5">
-      <c r="A10" s="7" t="s">
+    <row r="11" spans="1:5" ht="67.5" x14ac:dyDescent="0.5">
+      <c r="A11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A11" s="4" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="67.5" x14ac:dyDescent="0.5">
-      <c r="A12" s="7" t="s">
+    <row r="13" spans="1:5" ht="67.5" x14ac:dyDescent="0.5">
+      <c r="A13" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A13" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A14" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B16" s="18" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
-      <c r="A17" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>39</v>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A17" s="4">
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
       <c r="A18" s="7" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
       <c r="A19" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
+      <c r="A20" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A21" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A22" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A23" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
+      <c r="A24" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A20" s="9" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A25" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A22" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
-      <c r="A23" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A24" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
-      <c r="A25" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
       <c r="A26" s="7" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
       <c r="A27" s="7" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A28" s="4" t="s">
-        <v>79</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
+      <c r="A28" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A29" s="4" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A30" s="4" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
-      <c r="A32" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A33" s="4" t="s">
-        <v>95</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A31" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A32" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
+      <c r="A33" s="7" t="s">
+        <v>85</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A34" s="4" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A35" s="4" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
-      <c r="A36" s="7" t="s">
-        <v>101</v>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A36" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
       <c r="A37" s="7" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
       <c r="A38" s="7" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A39" s="4" t="s">
-        <v>108</v>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
+      <c r="A39" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>106</v>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A40" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A41" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
-      <c r="A42" s="7" t="s">
-        <v>111</v>
+      <c r="A41" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A42" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
       <c r="A43" s="7" t="s">
-        <v>181</v>
+        <v>104</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
       <c r="A44" s="7" t="s">
-        <v>117</v>
+        <v>158</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
       <c r="A45" s="7" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A46" s="4" t="s">
-        <v>119</v>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
+      <c r="A46" s="7" t="s">
+        <v>109</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A47" s="4" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A48" s="4" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
-      <c r="A49" s="7" t="s">
-        <v>182</v>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A49" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
       <c r="A50" s="7" t="s">
-        <v>125</v>
+        <v>159</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" s="18" customFormat="1" ht="67.5" x14ac:dyDescent="0.5">
+      <c r="A51" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B51" s="18" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A52" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>155</v>
+      <c r="A52" s="4">
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A53" s="4" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A54" s="4" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A55" s="4" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A56" s="4" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A57" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
+      <c r="A58" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A59" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A60" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A61" s="4" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
-      <c r="A57" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A58" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A60" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
-      <c r="A61" s="7" t="s">
-        <v>187</v>
-      </c>
       <c r="B61" s="2" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
       <c r="A62" s="7" t="s">
-        <v>191</v>
+        <v>164</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
       <c r="A63" s="7" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
       <c r="A64" s="7" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A65" s="4" t="s">
-        <v>195</v>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
+      <c r="A65" s="7" t="s">
+        <v>171</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
-      <c r="A66" s="7" t="s">
-        <v>200</v>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A66" s="4" t="s">
+        <v>172</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
       <c r="A67" s="7" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
       <c r="A68" s="7" t="s">
-        <v>201</v>
+        <v>175</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>197</v>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" s="18" customFormat="1" ht="67.5" x14ac:dyDescent="0.5">
+      <c r="A69" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="B69" s="18" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A70" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
+      <c r="A71" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
+      <c r="A72" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
+      <c r="A73" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
+      <c r="A74" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
+      <c r="A75" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
+      <c r="A76" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="73.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A77" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -2300,10 +2633,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D64"/>
+  <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2316,7 +2649,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
         <v>6</v>
@@ -2330,408 +2663,458 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>31</v>
+        <v>186</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>187</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>33</v>
+        <v>201</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>202</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" t="s">
-        <v>37</v>
+      <c r="A5" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="A6" s="1"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
+      <c r="A7" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C8" t="s">
-        <v>107</v>
-      </c>
-      <c r="D8" t="s">
-        <v>91</v>
-      </c>
+      <c r="A8" s="1"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
+      <c r="A9" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" s="11" t="s">
+      <c r="D11" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="B16" s="30">
+        <v>0</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="B17" s="31">
+        <v>1</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="B18" s="31">
+        <v>2</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="B19" s="31">
+        <v>3</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="B20" s="31">
+        <v>4</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="B21" s="31">
+        <v>5</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="B22" s="31">
+        <v>6</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="B23" s="31">
+        <v>7</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="B24" s="31">
+        <v>8</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="B25" s="31">
+        <v>9</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="B26" s="30">
+        <v>10</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>200</v>
+      </c>
+      <c r="B28" t="s">
+        <v>133</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C29" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>203</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="D31" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="B33" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="C33" s="26"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="B34" s="29">
+        <v>1</v>
+      </c>
+      <c r="C34" s="28" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="B35" s="29">
+        <v>2</v>
+      </c>
+      <c r="C35" s="28" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="B36" s="29">
+        <v>3</v>
+      </c>
+      <c r="C36" s="28" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" s="13" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A38" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A39" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="B39" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="D39" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-    </row>
-    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="B17" s="20">
-        <v>0</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="B18" s="20">
-        <v>1</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="B19" s="20">
-        <v>2</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="B20" s="20">
-        <v>3</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="B21" s="20">
-        <v>4</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="B22" s="20">
-        <v>5</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="B23" s="20">
-        <v>6</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="B24" s="20">
-        <v>7</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="B25" s="20">
-        <v>8</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="B26" s="20">
-        <v>9</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="B27" s="20">
-        <v>10</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>148</v>
-      </c>
-      <c r="B29" t="s">
-        <v>151</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="C30" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>169</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="D32" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="B34" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="C34" s="18"/>
-    </row>
-    <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="B35" s="18">
-        <v>1</v>
-      </c>
-      <c r="C35" s="19" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="B36" s="18">
-        <v>2</v>
-      </c>
-      <c r="C36" s="19" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="B37" s="18">
-        <v>3</v>
-      </c>
-      <c r="C37" s="19" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" s="14" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A39" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="B39" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A40" s="15" t="s">
-        <v>206</v>
-      </c>
-      <c r="B40" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="C40" s="16" t="s">
-        <v>209</v>
-      </c>
-      <c r="D40" s="14" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="40" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:4" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:4" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="40" t="s">
+        <v>226</v>
+      </c>
+      <c r="B43" s="32" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="39" t="s">
+        <v>228</v>
+      </c>
+      <c r="B44" s="33" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="34" t="s">
+        <v>229</v>
+      </c>
+      <c r="B45" s="33" t="s">
+        <v>239</v>
+      </c>
+      <c r="D45" s="37" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="34" t="s">
+        <v>230</v>
+      </c>
+      <c r="B46" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="D46" s="36" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="34" t="s">
+        <v>231</v>
+      </c>
+      <c r="B47" s="33" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="38" t="s">
+        <v>232</v>
+      </c>
+      <c r="B48" s="35" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="49" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Japanese-NHK.xlsx
+++ b/Japanese-NHK.xlsx
@@ -40,9 +40,6 @@
     <t>How do you do?</t>
   </si>
   <si>
-    <t>Nice to meet you too</t>
-  </si>
-  <si>
     <t>こちらこそ。</t>
   </si>
   <si>
@@ -62,9 +59,6 @@
     <t>どうぞ。</t>
   </si>
   <si>
-    <t>This is for you</t>
-  </si>
-  <si>
     <t>これはなんですか。
 これは何ですか。</t>
   </si>
@@ -88,9 +82,6 @@
     <t>それはタイのお土産です。</t>
   </si>
   <si>
-    <t>It's is a Thai souvenir</t>
-  </si>
-  <si>
     <t>ありがとうございます。</t>
   </si>
   <si>
@@ -218,9 +209,6 @@
     <t>トイレ。</t>
   </si>
   <si>
-    <t>I / ME</t>
-  </si>
-  <si>
     <t>I'm home / I'm Back</t>
   </si>
   <si>
@@ -423,12 +411,6 @@
       </rPr>
       <t>ARIMASEN</t>
     </r>
-  </si>
-  <si>
-    <t>はい、あなたはにほんじんです。</t>
-  </si>
-  <si>
-    <t>いいえ、あなたは日本人ではありません。</t>
   </si>
   <si>
     <t>Yes, Anna is Japanese</t>
@@ -809,9 +791,6 @@
   <si>
     <t>こんど。
 今度。</t>
-  </si>
-  <si>
-    <t>あなたは日本人ですか？</t>
   </si>
   <si>
     <r>
@@ -1516,6 +1495,27 @@
       </rPr>
       <t>TTE</t>
     </r>
+  </si>
+  <si>
+    <t>Likewise</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>Here you go.</t>
+  </si>
+  <si>
+    <t>It's a Thai souvenir</t>
+  </si>
+  <si>
+    <t>あんなは日本人ですか？</t>
+  </si>
+  <si>
+    <t>はい、あんなはにほんじんです。</t>
+  </si>
+  <si>
+    <t>いいえ、あんなは日本人ではありません。</t>
   </si>
 </sst>
 </file>
@@ -2019,8 +2019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E77"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A78" sqref="A78"/>
+    <sheetView topLeftCell="A33" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="33.75" x14ac:dyDescent="0.5"/>
@@ -2040,18 +2040,18 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A2" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A3" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.5">
@@ -2064,18 +2064,18 @@
     </row>
     <row r="5" spans="1:5" ht="67.5" x14ac:dyDescent="0.5">
       <c r="A5" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>40</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A6" s="4" t="s">
-        <v>47</v>
+      <c r="A6" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -2090,10 +2090,10 @@
     </row>
     <row r="8" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A8" s="17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>4</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.5">
@@ -2104,58 +2104,58 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A10" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>11</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="67.5" x14ac:dyDescent="0.5">
       <c r="A11" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A12" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="67.5" x14ac:dyDescent="0.5">
       <c r="A13" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A14" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>19</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A15" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A16" s="19" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.5">
@@ -2165,34 +2165,34 @@
     </row>
     <row r="18" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
       <c r="A18" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
       <c r="A19" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
       <c r="A20" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A21" s="20" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.5">
@@ -2202,74 +2202,74 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A23" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
       <c r="A24" s="7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A25" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
       <c r="A26" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
       <c r="A27" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
       <c r="A28" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A29" s="4" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A30" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A31" s="19" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.5">
@@ -2279,66 +2279,66 @@
     </row>
     <row r="33" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
       <c r="A33" s="7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A34" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A35" s="4" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A36" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
       <c r="A37" s="7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
       <c r="A38" s="7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
       <c r="A39" s="7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A40" s="19" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.5">
@@ -2348,82 +2348,82 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A42" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
       <c r="A43" s="7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
       <c r="A44" s="7" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
       <c r="A45" s="7" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
       <c r="A46" s="7" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A47" s="4" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A48" s="4" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A49" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
       <c r="A50" s="7" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="51" spans="1:2" s="18" customFormat="1" ht="67.5" x14ac:dyDescent="0.5">
       <c r="A51" s="21" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.5">
@@ -2433,58 +2433,58 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A53" s="4" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A54" s="4" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A55" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A56" s="4" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A57" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
       <c r="A58" s="7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="59" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A59" s="19" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.5">
@@ -2494,74 +2494,74 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A61" s="4" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
       <c r="A62" s="7" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
       <c r="A63" s="7" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
       <c r="A64" s="7" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
       <c r="A65" s="7" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A66" s="4" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
       <c r="A67" s="7" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
       <c r="A68" s="7" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="69" spans="1:2" s="18" customFormat="1" ht="67.5" x14ac:dyDescent="0.5">
       <c r="A69" s="21" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.5">
@@ -2571,58 +2571,58 @@
     </row>
     <row r="71" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
       <c r="A71" s="7" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
       <c r="A72" s="7" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
       <c r="A73" s="7" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
       <c r="A74" s="7" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
       <c r="A75" s="7" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
       <c r="A76" s="7" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="73.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A77" s="7" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -2635,8 +2635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2649,60 +2649,60 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B2" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C2" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B4" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2710,16 +2710,16 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2727,73 +2727,73 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>160</v>
+        <v>237</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>65</v>
+        <v>238</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>66</v>
+        <v>239</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -2801,159 +2801,159 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B16" s="30">
         <v>0</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B17" s="31">
         <v>1</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B18" s="31">
         <v>2</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B19" s="31">
         <v>3</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B20" s="31">
         <v>4</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B21" s="31">
         <v>5</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B22" s="31">
         <v>6</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B23" s="31">
         <v>7</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B24" s="31">
         <v>8</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B25" s="31">
         <v>9</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B26" s="30">
         <v>10</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="B28" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C29" s="12" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D31" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -2962,142 +2962,142 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="25" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C33" s="26"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="27" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B34" s="29">
         <v>1</v>
       </c>
       <c r="C34" s="28" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="27" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B35" s="29">
         <v>2</v>
       </c>
       <c r="C35" s="28" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="27" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B36" s="29">
         <v>3</v>
       </c>
       <c r="C36" s="28" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="38" spans="1:4" s="13" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="39" spans="1:4" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="40" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="41" spans="1:4" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="42" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="43" spans="1:4" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="40" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="B43" s="32" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="44" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="39" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="B44" s="33" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="45" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="34" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="B45" s="33" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D45" s="37" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="46" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="34" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="B46" s="33" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="D46" s="36" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="47" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="34" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="B47" s="33" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
     <row r="48" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="38" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="B48" s="35" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
     </row>
     <row r="49" s="13" customFormat="1" x14ac:dyDescent="0.25"/>

--- a/Japanese-NHK.xlsx
+++ b/Japanese-NHK.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Vocabulary" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="262">
   <si>
     <t>Nice to meet you (1st time meet)</t>
   </si>
@@ -760,11 +760,6 @@
   </si>
   <si>
     <t>There is a cake</t>
-  </si>
-  <si>
-    <t>There is/are __N__
-- GA: Introduce sth/so for first time
-- ARIMASU: Indicate sth</t>
   </si>
   <si>
     <t>シュークリームがあります。</t>
@@ -1516,6 +1511,97 @@
   </si>
   <si>
     <t>いいえ、あんなは日本人ではありません。</t>
+  </si>
+  <si>
+    <t>There is/are __N__
+- GA: Introduce sth/so for first time
+- ARIMASU: Indicate sth (non-living things)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">__N__ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GA + IMASU</t>
+    </r>
+  </si>
+  <si>
+    <t>There is/are __N__
+- GA: Introduce sth/so for first time
+- IMASU Indicate sth / so (living things)</t>
+  </si>
+  <si>
+    <t>アンナがいます。</t>
+  </si>
+  <si>
+    <t>There is Anna / Anna is here</t>
+  </si>
+  <si>
+    <t>MASU -&gt; MASHITA</t>
+  </si>
+  <si>
+    <t>Past form of MASU</t>
+  </si>
+  <si>
+    <t>(to eat) -&gt; (ate)</t>
+  </si>
+  <si>
+    <t>食べます　-&gt;　たべました</t>
+  </si>
+  <si>
+    <t>At first,</t>
+  </si>
+  <si>
+    <t>はじめ</t>
+  </si>
+  <si>
+    <t>しんちょう
+身長</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>たいじゅう
+体重</t>
+  </si>
+  <si>
+    <t>はかります</t>
+  </si>
+  <si>
+    <t>measure</t>
+  </si>
+  <si>
+    <t>ぜん
+全</t>
+  </si>
+  <si>
+    <t>いん
+員</t>
+  </si>
+  <si>
+    <t>Members</t>
+  </si>
+  <si>
+    <t>All, every</t>
+  </si>
+  <si>
+    <t>I'm late.</t>
+  </si>
+  <si>
+    <t>おくれまして
+遅れまして</t>
   </si>
 </sst>
 </file>
@@ -2017,10 +2103,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E77"/>
+  <dimension ref="A1:E86"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A86" sqref="A86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="33.75" x14ac:dyDescent="0.5"/>
@@ -2067,7 +2153,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.5">
@@ -2093,7 +2179,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.5">
@@ -2107,7 +2193,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="67.5" x14ac:dyDescent="0.5">
@@ -2139,7 +2225,7 @@
         <v>16</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.5">
@@ -2364,7 +2450,7 @@
     </row>
     <row r="44" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
       <c r="A44" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>100</v>
@@ -2412,7 +2498,7 @@
     </row>
     <row r="50" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
       <c r="A50" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>113</v>
@@ -2494,63 +2580,63 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A61" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
       <c r="A62" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
       <c r="A63" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
       <c r="A64" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
       <c r="A65" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A66" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
       <c r="A67" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
       <c r="A68" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>141</v>
@@ -2558,10 +2644,10 @@
     </row>
     <row r="69" spans="1:2" s="18" customFormat="1" ht="67.5" x14ac:dyDescent="0.5">
       <c r="A69" s="21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.5">
@@ -2571,58 +2657,124 @@
     </row>
     <row r="71" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
       <c r="A71" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
       <c r="A72" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
       <c r="A73" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
       <c r="A74" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
       <c r="A75" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
       <c r="A76" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="73.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A77" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A78" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A79" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
+      <c r="A80" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
+      <c r="A81" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A82" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
+      <c r="A83" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
+      <c r="A84" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
+      <c r="A85" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A86" s="4">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -2635,8 +2787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView topLeftCell="A44" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2663,13 +2815,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B2" t="s">
         <v>179</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>180</v>
-      </c>
-      <c r="C2" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2688,10 +2840,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="B4" t="s">
         <v>194</v>
-      </c>
-      <c r="B4" t="s">
-        <v>195</v>
       </c>
       <c r="C4" t="s">
         <v>26</v>
@@ -2733,7 +2885,7 @@
         <v>56</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>57</v>
@@ -2741,13 +2893,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>58</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>61</v>
@@ -2761,7 +2913,7 @@
         <v>59</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>62</v>
@@ -2807,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -2818,7 +2970,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -2829,7 +2981,7 @@
         <v>2</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -2840,7 +2992,7 @@
         <v>3</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -2851,7 +3003,7 @@
         <v>4</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -2862,7 +3014,7 @@
         <v>5</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -2873,7 +3025,7 @@
         <v>6</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -2884,7 +3036,7 @@
         <v>7</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -2895,7 +3047,7 @@
         <v>8</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -2906,7 +3058,7 @@
         <v>9</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -2917,12 +3069,12 @@
         <v>10</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B28" t="s">
         <v>127</v>
@@ -2944,13 +3096,13 @@
     </row>
     <row r="31" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B31" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="C31" s="12" t="s">
         <v>145</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>146</v>
       </c>
       <c r="D31" t="s">
         <v>144</v>
@@ -2962,159 +3114,185 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="B33" s="26" t="s">
         <v>147</v>
-      </c>
-      <c r="B33" s="26" t="s">
-        <v>148</v>
       </c>
       <c r="C33" s="26"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B34" s="29">
         <v>1</v>
       </c>
       <c r="C34" s="28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B35" s="29">
         <v>2</v>
       </c>
       <c r="C35" s="28" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B36" s="29">
         <v>3</v>
       </c>
       <c r="C36" s="28" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="38" spans="1:4" s="13" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="B38" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="B38" s="15" t="s">
+      <c r="C38" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="D38" s="13" t="s">
         <v>173</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="39" spans="1:4" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="D39" s="13" t="s">
         <v>176</v>
-      </c>
-      <c r="B39" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="C39" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="40" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="41" spans="1:4" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="B41" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="C41" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="D41" s="13" t="s">
         <v>216</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="42" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="43" spans="1:4" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="40" t="s">
+        <v>218</v>
+      </c>
+      <c r="B43" s="32" t="s">
         <v>219</v>
-      </c>
-      <c r="B43" s="32" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="44" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="39" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B44" s="33" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="45" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="34" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B45" s="33" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D45" s="37" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="46" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="34" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B46" s="33" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D46" s="36" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="47" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="34" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B47" s="33" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="48" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="38" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B48" s="35" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="49" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="1:4" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>240</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="D50" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="D52" s="13" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Japanese-NHK.xlsx
+++ b/Japanese-NHK.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="302">
   <si>
     <t>Nice to meet you (1st time meet)</t>
   </si>
@@ -1602,6 +1602,130 @@
   <si>
     <t>おくれまして
 遅れまして</t>
+  </si>
+  <si>
+    <t>Party</t>
+  </si>
+  <si>
+    <t>パーテイー</t>
+  </si>
+  <si>
+    <t>Dormitory</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>ひらきます
+開きます</t>
+  </si>
+  <si>
+    <t>りょう
+寮</t>
+  </si>
+  <si>
+    <t>On Saturday this week, we'll have a party at our dormitory</t>
+  </si>
+  <si>
+    <t>こんしゅうのどうよびにりょうでパーテイーをひらきます
+今週のど曜日に寮でパーテイーをひらきます</t>
+  </si>
+  <si>
+    <t>By all mean</t>
+  </si>
+  <si>
+    <t>ぜひ</t>
+  </si>
+  <si>
+    <t>Come</t>
+  </si>
+  <si>
+    <t>きます
+来ます</t>
+  </si>
+  <si>
+    <t>わあ</t>
+  </si>
+  <si>
+    <t>Oh</t>
+  </si>
+  <si>
+    <t>I'll go. I'll go</t>
+  </si>
+  <si>
+    <t>いくいく</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>月曜日</t>
+  </si>
+  <si>
+    <t>火曜日</t>
+  </si>
+  <si>
+    <t>水曜日</t>
+  </si>
+  <si>
+    <t>木曜日</t>
+  </si>
+  <si>
+    <t>金曜日</t>
+  </si>
+  <si>
+    <t>土曜日</t>
+  </si>
+  <si>
+    <t>日曜日</t>
+  </si>
+  <si>
+    <t>Getsuyoubi</t>
+  </si>
+  <si>
+    <t>Kayoubi</t>
+  </si>
+  <si>
+    <t>Suiyoubi</t>
+  </si>
+  <si>
+    <t>Mokuyoubi</t>
+  </si>
+  <si>
+    <t>Kinyoubi</t>
+  </si>
+  <si>
+    <t>Doyoubi</t>
+  </si>
+  <si>
+    <t>Nichiyoubi</t>
+  </si>
+  <si>
+    <t>Dictionary-verbs: to sound more casual</t>
+  </si>
+  <si>
+    <t>Ikimasu (to go) =&gt; IKU</t>
+  </si>
+  <si>
+    <t>TEBAMASU (to eat) =&gt; TABERU</t>
   </si>
 </sst>
 </file>
@@ -2103,16 +2227,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E86"/>
+  <dimension ref="A1:E95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A86" sqref="A86"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A96" sqref="A96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="33.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="91.5703125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="43.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="53.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" style="2" customWidth="1"/>
     <col min="4" max="4" width="20" style="2" customWidth="1"/>
     <col min="5" max="5" width="91" style="2" customWidth="1"/>
@@ -2777,6 +2901,75 @@
         <v>11</v>
       </c>
     </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A87" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
+      <c r="A88" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
+      <c r="A89" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="135" x14ac:dyDescent="0.5">
+      <c r="A90" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A91" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
+      <c r="A92" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A93" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A94" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A95" s="4">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2785,10 +2978,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D63"/>
+  <dimension ref="A1:D73"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView topLeftCell="A55" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3283,16 +3476,108 @@
       </c>
     </row>
     <row r="53" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>291</v>
+      </c>
+    </row>
     <row r="61" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="11" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="11" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="11" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="65" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Japanese-NHK.xlsx
+++ b/Japanese-NHK.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="349">
   <si>
     <t>Nice to meet you (1st time meet)</t>
   </si>
@@ -1726,6 +1726,172 @@
   </si>
   <si>
     <t>TEBAMASU (to eat) =&gt; TABERU</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>にほん
+日本</t>
+  </si>
+  <si>
+    <t>When did you come to Japan?</t>
+  </si>
+  <si>
+    <t>いつにほんにきましたか？
+いつ日本に来ましたか？</t>
+  </si>
+  <si>
+    <t>もうほんのせいかつになれた？
+もう日本の生活に慣れた？</t>
+  </si>
+  <si>
+    <t>Have you got used to living in Japan by now?</t>
+  </si>
+  <si>
+    <t>Yeah, to some extend</t>
+  </si>
+  <si>
+    <t>ええ、まあ</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - form verbs</t>
+    </r>
+  </si>
+  <si>
+    <t>- Is the conjugation form of verbs that ends with TA / DA: It Is for the past / the perfect aspect of verbs
+- Sound more casual
+- Simply replace TE with TA, and DE with DA</t>
+  </si>
+  <si>
+    <t>NAREMASU (to get used to) =&gt; NARETA (got used)</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>Febuary</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>December</t>
+  </si>
+  <si>
+    <t>Ichigatsu</t>
+  </si>
+  <si>
+    <t>Nigatsu</t>
+  </si>
+  <si>
+    <t>Sangatsu</t>
+  </si>
+  <si>
+    <t>Shigatsu</t>
+  </si>
+  <si>
+    <t>Gogatsu</t>
+  </si>
+  <si>
+    <t>Rokugatsu</t>
+  </si>
+  <si>
+    <t>Shichigatsu</t>
+  </si>
+  <si>
+    <t>Hachigatsu</t>
+  </si>
+  <si>
+    <t>Kugatsu</t>
+  </si>
+  <si>
+    <t>Juugatsu</t>
+  </si>
+  <si>
+    <t>Juuichigatsu</t>
+  </si>
+  <si>
+    <t>Juunigatsu</t>
+  </si>
+  <si>
+    <t>一月</t>
+  </si>
+  <si>
+    <t>二月</t>
+  </si>
+  <si>
+    <t>三月</t>
+  </si>
+  <si>
+    <t>四月</t>
+  </si>
+  <si>
+    <t>五月</t>
+  </si>
+  <si>
+    <t>六月</t>
+  </si>
+  <si>
+    <t>七月</t>
+  </si>
+  <si>
+    <t>八月</t>
+  </si>
+  <si>
+    <t>九月</t>
+  </si>
+  <si>
+    <t>十月</t>
+  </si>
+  <si>
+    <t>十一月</t>
+  </si>
+  <si>
+    <t>十二月</t>
   </si>
 </sst>
 </file>
@@ -1800,7 +1966,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1834,6 +2000,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1879,7 +2051,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1947,6 +2119,10 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2227,10 +2403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E95"/>
+  <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A96" sqref="A96"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="33.75" x14ac:dyDescent="0.5"/>
@@ -2970,6 +3146,43 @@
         <v>12</v>
       </c>
     </row>
+    <row r="96" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
+      <c r="A96" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
+      <c r="A97" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="67.5" x14ac:dyDescent="0.5">
+      <c r="A98" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A99" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A100" s="4">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2978,10 +3191,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D73"/>
+  <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66"/>
+    <sheetView topLeftCell="A69" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3569,15 +3782,151 @@
         <v>301</v>
       </c>
     </row>
-    <row r="65" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" spans="1:3" s="13" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A66" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="B66" s="41" t="s">
+        <v>311</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="42" t="s">
+        <v>313</v>
+      </c>
+      <c r="B68" s="42" t="s">
+        <v>325</v>
+      </c>
+      <c r="C68" s="42" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="42" t="s">
+        <v>314</v>
+      </c>
+      <c r="B69" s="42" t="s">
+        <v>326</v>
+      </c>
+      <c r="C69" s="42" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="42" t="s">
+        <v>315</v>
+      </c>
+      <c r="B70" s="42" t="s">
+        <v>327</v>
+      </c>
+      <c r="C70" s="42" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="42" t="s">
+        <v>316</v>
+      </c>
+      <c r="B71" s="42" t="s">
+        <v>328</v>
+      </c>
+      <c r="C71" s="42" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="42" t="s">
+        <v>317</v>
+      </c>
+      <c r="B72" s="42" t="s">
+        <v>329</v>
+      </c>
+      <c r="C72" s="42" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="42" t="s">
+        <v>318</v>
+      </c>
+      <c r="B73" s="42" t="s">
+        <v>330</v>
+      </c>
+      <c r="C73" s="42" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="42" t="s">
+        <v>319</v>
+      </c>
+      <c r="B74" s="42" t="s">
+        <v>331</v>
+      </c>
+      <c r="C74" s="42" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="42" t="s">
+        <v>320</v>
+      </c>
+      <c r="B75" s="42" t="s">
+        <v>332</v>
+      </c>
+      <c r="C75" s="42" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="42" t="s">
+        <v>321</v>
+      </c>
+      <c r="B76" s="42" t="s">
+        <v>333</v>
+      </c>
+      <c r="C76" s="42" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="42" t="s">
+        <v>322</v>
+      </c>
+      <c r="B77" s="42" t="s">
+        <v>334</v>
+      </c>
+      <c r="C77" s="42" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="42" t="s">
+        <v>323</v>
+      </c>
+      <c r="B78" s="42" t="s">
+        <v>335</v>
+      </c>
+      <c r="C78" s="42" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="42" t="s">
+        <v>324</v>
+      </c>
+      <c r="B79" s="42" t="s">
+        <v>336</v>
+      </c>
+      <c r="C79" s="42" t="s">
+        <v>348</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
